--- a/experiments/compression/results.2017/HorseRes.xlsx
+++ b/experiments/compression/results.2017/HorseRes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\plane tree experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\phdThesis\experiments\compression\results.2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="11475" windowHeight="3540" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="11475" windowHeight="3540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chart3" sheetId="6" r:id="rId1"/>
@@ -330,11 +330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395472880"/>
-        <c:axId val="395470528"/>
+        <c:axId val="320818048"/>
+        <c:axId val="320820400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395472880"/>
+        <c:axId val="320818048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395470528"/>
+        <c:crossAx val="320820400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395470528"/>
+        <c:axId val="320820400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395472880"/>
+        <c:crossAx val="320818048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,11 +599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395472096"/>
-        <c:axId val="395472488"/>
+        <c:axId val="320820792"/>
+        <c:axId val="320814128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395472096"/>
+        <c:axId val="320820792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,12 +641,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395472488"/>
+        <c:crossAx val="320814128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395472488"/>
+        <c:axId val="320814128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395472096"/>
+        <c:crossAx val="320820792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -892,11 +892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395475232"/>
-        <c:axId val="395448184"/>
+        <c:axId val="320814912"/>
+        <c:axId val="320816480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395475232"/>
+        <c:axId val="320814912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,12 +934,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395448184"/>
+        <c:crossAx val="320816480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395448184"/>
+        <c:axId val="320816480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395475232"/>
+        <c:crossAx val="320814912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1176,11 +1176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395450144"/>
-        <c:axId val="395450928"/>
+        <c:axId val="320815304"/>
+        <c:axId val="322781120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395450144"/>
+        <c:axId val="320815304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,12 +1218,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395450928"/>
+        <c:crossAx val="322781120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395450928"/>
+        <c:axId val="322781120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000005E-3"/>
@@ -1262,7 +1262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395450144"/>
+        <c:crossAx val="320815304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1508,11 +1508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395454456"/>
-        <c:axId val="395461120"/>
+        <c:axId val="322787784"/>
+        <c:axId val="322788568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395454456"/>
+        <c:axId val="322787784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,12 +1551,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395461120"/>
+        <c:crossAx val="322788568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395461120"/>
+        <c:axId val="322788568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395454456"/>
+        <c:crossAx val="322787784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1916,11 +1916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395465824"/>
-        <c:axId val="395459160"/>
+        <c:axId val="322785824"/>
+        <c:axId val="322787392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395465824"/>
+        <c:axId val="322785824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,18 +1942,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395459160"/>
+        <c:crossAx val="322787392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395459160"/>
+        <c:axId val="322787392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,19 +1976,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395465824"/>
+        <c:crossAx val="322785824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2158,11 +2161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395463080"/>
-        <c:axId val="395456416"/>
+        <c:axId val="322785040"/>
+        <c:axId val="322786216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395463080"/>
+        <c:axId val="322785040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,18 +2187,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395456416"/>
+        <c:crossAx val="322786216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395456416"/>
+        <c:axId val="322786216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,19 +2221,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395463080"/>
+        <c:crossAx val="322785040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2296,7 +2302,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2416,7 +2422,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9172705" cy="6289110"/>
+    <xdr:ext cx="9485856" cy="6289110"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2797,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/experiments/compression/results.2017/HorseRes.xlsx
+++ b/experiments/compression/results.2017/HorseRes.xlsx
@@ -17,9 +17,10 @@
     <sheet name="Chart1" sheetId="8" r:id="rId3"/>
     <sheet name="Chart2" sheetId="9" r:id="rId4"/>
     <sheet name="Chart5" sheetId="10" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="ChartX" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -38,9 +39,6 @@
   </si>
   <si>
     <t>BPV</t>
-  </si>
-  <si>
-    <t>BIO-Tree</t>
   </si>
   <si>
     <t>ME</t>
@@ -104,6 +102,9 @@
   </si>
   <si>
     <t>mse</t>
+  </si>
+  <si>
+    <t>SOT</t>
   </si>
 </sst>
 </file>
@@ -330,11 +331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320818048"/>
-        <c:axId val="320820400"/>
+        <c:axId val="324435184"/>
+        <c:axId val="324437536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320818048"/>
+        <c:axId val="324435184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +373,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320820400"/>
+        <c:crossAx val="324437536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320820400"/>
+        <c:axId val="324437536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320818048"/>
+        <c:crossAx val="324435184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,11 +600,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320820792"/>
-        <c:axId val="320814128"/>
+        <c:axId val="324437928"/>
+        <c:axId val="324435968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320820792"/>
+        <c:axId val="324437928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,12 +642,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320814128"/>
+        <c:crossAx val="324435968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320814128"/>
+        <c:axId val="324435968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320820792"/>
+        <c:crossAx val="324437928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -892,11 +893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320814912"/>
-        <c:axId val="320816480"/>
+        <c:axId val="324438320"/>
+        <c:axId val="324438712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320814912"/>
+        <c:axId val="324438320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,12 +935,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320816480"/>
+        <c:crossAx val="324438712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320816480"/>
+        <c:axId val="324438712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320814912"/>
+        <c:crossAx val="324438320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1176,11 +1177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320815304"/>
-        <c:axId val="322781120"/>
+        <c:axId val="324439888"/>
+        <c:axId val="326015112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320815304"/>
+        <c:axId val="324439888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,12 +1219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322781120"/>
+        <c:crossAx val="326015112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322781120"/>
+        <c:axId val="326015112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000005E-3"/>
@@ -1262,7 +1263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320815304"/>
+        <c:crossAx val="324439888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1508,11 +1509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322787784"/>
-        <c:axId val="322788568"/>
+        <c:axId val="326012760"/>
+        <c:axId val="326010408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322787784"/>
+        <c:axId val="326012760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1535,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1551,12 +1551,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322788568"/>
+        <c:crossAx val="326010408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322788568"/>
+        <c:axId val="326010408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1578,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
@@ -1595,7 +1594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322787784"/>
+        <c:crossAx val="326012760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1657,6 +1656,492 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bayazit et al.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.561112757576412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.523786625947727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.196877778410197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.777263993374014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>1.895735652406375E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1622776601683783E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4677992676220676E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4730820370103865E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plane-Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$55:$G$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.19787416251070475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4403304619414639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9529494735781572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9130522391819051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9475089416150322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.179436804191223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$55:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8390000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.039E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8399999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8299999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.48E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7799999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.42879451916780009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1791849277114503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8834819404564001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1694624955921613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8245932194851644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0168253488489247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2340436250062972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3900055412825552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6052088056017331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8369351669941061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0662435141806457</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.904186187093849</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.250768223263311</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.586469195506524</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.178026295904488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.4583E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3420000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9689999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2520000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.67E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1900000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7100000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6700000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2099999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="362796408"/>
+        <c:axId val="362796800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="362796408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="4000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="4000"/>
+                  <a:t>Bitrate (bpv)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362796800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="362796800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="4000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="4000"/>
+                  <a:t>RMS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362796408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66476076760896696"/>
+          <c:y val="1.7771554706289328E-2"/>
+          <c:w val="0.32294415042381996"/>
+          <c:h val="0.3410257635159622"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="4000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1665,7 +2150,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIO-Tree</c:v>
+                  <c:v>SOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1916,11 +2401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322785824"/>
-        <c:axId val="322787392"/>
+        <c:axId val="326013544"/>
+        <c:axId val="326015896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322785824"/>
+        <c:axId val="326013544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,12 +2434,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322787392"/>
+        <c:crossAx val="326015896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322787392"/>
+        <c:axId val="326015896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,7 +2468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322785824"/>
+        <c:crossAx val="326013544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2005,7 +2490,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2153,6 +2638,130 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.42879451916780009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1791849277114503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8834819404564001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1694624955921613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8245932194851644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0168253488489247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2340436250062972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3900055412825552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6052088056017331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8369351669941061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0662435141806457</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.904186187093849</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.250768223263311</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.586469195506524</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.178026295904488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.4583E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3420000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9689999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2520000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.67E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1900000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7100000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6700000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2099999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2161,11 +2770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322785040"/>
-        <c:axId val="322786216"/>
+        <c:axId val="326009232"/>
+        <c:axId val="326016288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322785040"/>
+        <c:axId val="326009232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,14 +2803,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322786216"/>
+        <c:crossAx val="326016288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322786216"/>
+        <c:axId val="326016288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2228,7 +2838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322785040"/>
+        <c:crossAx val="326009232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2307,6 +2917,17 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -2447,18 +3068,45 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2481,16 +3129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2803,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,36 +3472,36 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -3334,7 +3982,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3347,10 +3995,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3464,13 +4112,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="4"/>
       <c r="E44">
@@ -3560,10 +4208,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
         <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3572,30 +4220,30 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
         <v>21</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>22</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>23</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
         <v>24</v>
       </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>25</v>
-      </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">

--- a/experiments/compression/results.2017/HorseRes.xlsx
+++ b/experiments/compression/results.2017/HorseRes.xlsx
@@ -331,11 +331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324435184"/>
-        <c:axId val="324437536"/>
+        <c:axId val="328317896"/>
+        <c:axId val="328321424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324435184"/>
+        <c:axId val="328317896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,12 +373,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324437536"/>
+        <c:crossAx val="328321424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324437536"/>
+        <c:axId val="328321424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324435184"/>
+        <c:crossAx val="328317896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -600,11 +600,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324437928"/>
-        <c:axId val="324435968"/>
+        <c:axId val="328322992"/>
+        <c:axId val="328325344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324437928"/>
+        <c:axId val="328322992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,12 +642,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324435968"/>
+        <c:crossAx val="328325344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324435968"/>
+        <c:axId val="328325344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324437928"/>
+        <c:crossAx val="328322992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -893,11 +893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324438320"/>
-        <c:axId val="324438712"/>
+        <c:axId val="328319464"/>
+        <c:axId val="328319856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324438320"/>
+        <c:axId val="328319464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,12 +935,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324438712"/>
+        <c:crossAx val="328319856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324438712"/>
+        <c:axId val="328319856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324438320"/>
+        <c:crossAx val="328319464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1177,11 +1177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324439888"/>
-        <c:axId val="326015112"/>
+        <c:axId val="328321032"/>
+        <c:axId val="329853456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324439888"/>
+        <c:axId val="328321032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,12 +1219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326015112"/>
+        <c:crossAx val="329853456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326015112"/>
+        <c:axId val="329853456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000005E-3"/>
@@ -1263,7 +1263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324439888"/>
+        <c:crossAx val="328321032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1509,11 +1509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="326012760"/>
-        <c:axId val="326010408"/>
+        <c:axId val="329846792"/>
+        <c:axId val="329851104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="326012760"/>
+        <c:axId val="329846792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,12 +1551,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326010408"/>
+        <c:crossAx val="329851104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326010408"/>
+        <c:axId val="329851104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326012760"/>
+        <c:crossAx val="329846792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1992,11 +1992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362796408"/>
-        <c:axId val="362796800"/>
+        <c:axId val="329852672"/>
+        <c:axId val="329847576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362796408"/>
+        <c:axId val="329852672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,11 +2009,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="4000"/>
+                  <a:defRPr sz="4000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="4000"/>
-                  <a:t>Bitrate (bpv)</a:t>
+                  <a:rPr lang="en-AU" sz="4000" b="0"/>
+                  <a:t>Bit-rate (BPV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2035,12 +2035,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362796800"/>
+        <c:crossAx val="329847576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362796800"/>
+        <c:axId val="329847576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-3"/>
@@ -2054,10 +2054,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="4000"/>
+                  <a:defRPr sz="4000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="4000"/>
+                  <a:rPr lang="en-AU" sz="4000" b="0"/>
                   <a:t>RMS</a:t>
                 </a:r>
               </a:p>
@@ -2080,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362796408"/>
+        <c:crossAx val="329852672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2401,11 +2401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="326013544"/>
-        <c:axId val="326015896"/>
+        <c:axId val="329851888"/>
+        <c:axId val="329848360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="326013544"/>
+        <c:axId val="329851888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,19 +2427,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326015896"/>
+        <c:crossAx val="329848360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326015896"/>
+        <c:axId val="329848360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,21 +2460,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326013544"/>
+        <c:crossAx val="329851888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2770,11 +2767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="326009232"/>
-        <c:axId val="326016288"/>
+        <c:axId val="329853064"/>
+        <c:axId val="329851496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="326009232"/>
+        <c:axId val="329853064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,19 +2793,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326016288"/>
+        <c:crossAx val="329851496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326016288"/>
+        <c:axId val="329851496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-3"/>
@@ -2831,21 +2827,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326009232"/>
+        <c:crossAx val="329853064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2927,7 +2921,8 @@
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
